--- a/Ele_Charge_Analysis/charge_demand_coef.xlsx
+++ b/Ele_Charge_Analysis/charge_demand_coef.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>fir_coef</t>
   </si>
@@ -28,82 +28,190 @@
     <t>EMD_NM</t>
   </si>
   <si>
-    <t>운림동</t>
-  </si>
-  <si>
     <t>하남동</t>
   </si>
   <si>
+    <t>본촌동</t>
+  </si>
+  <si>
+    <t>치평동</t>
+  </si>
+  <si>
+    <t>서석동</t>
+  </si>
+  <si>
+    <t>쌍촌동</t>
+  </si>
+  <si>
+    <t>옥동</t>
+  </si>
+  <si>
+    <t>충장동</t>
+  </si>
+  <si>
+    <t>북구_용봉동</t>
+  </si>
+  <si>
     <t>소촌동</t>
   </si>
   <si>
+    <t>농성동</t>
+  </si>
+  <si>
+    <t>월계동</t>
+  </si>
+  <si>
+    <t>서창동</t>
+  </si>
+  <si>
+    <t>북구_양산동</t>
+  </si>
+  <si>
+    <t>광산구_우산동</t>
+  </si>
+  <si>
+    <t>운암동</t>
+  </si>
+  <si>
+    <t>중흥동</t>
+  </si>
+  <si>
+    <t>임암동</t>
+  </si>
+  <si>
+    <t>신안동</t>
+  </si>
+  <si>
+    <t>화정동</t>
+  </si>
+  <si>
+    <t>학동</t>
+  </si>
+  <si>
+    <t>광천동</t>
+  </si>
+  <si>
+    <t>수완동</t>
+  </si>
+  <si>
+    <t>월산동</t>
+  </si>
+  <si>
+    <t>두암동</t>
+  </si>
+  <si>
+    <t>봉선동</t>
+  </si>
+  <si>
+    <t>북동</t>
+  </si>
+  <si>
+    <t>서동</t>
+  </si>
+  <si>
+    <t>송정동</t>
+  </si>
+  <si>
+    <t>주월동</t>
+  </si>
+  <si>
+    <t>오치동</t>
+  </si>
+  <si>
+    <t>계림동</t>
+  </si>
+  <si>
+    <t>진월동</t>
+  </si>
+  <si>
+    <t>소태동</t>
+  </si>
+  <si>
     <t>신창동</t>
   </si>
   <si>
-    <t>대인동</t>
+    <t>삼각동</t>
   </si>
   <si>
     <t>백운동</t>
   </si>
   <si>
+    <t>금호동</t>
+  </si>
+  <si>
+    <t>운남동</t>
+  </si>
+  <si>
+    <t>동구_지산동</t>
+  </si>
+  <si>
+    <t>양림동</t>
+  </si>
+  <si>
+    <t>일곡동</t>
+  </si>
+  <si>
+    <t>비아동</t>
+  </si>
+  <si>
+    <t>동천동</t>
+  </si>
+  <si>
+    <t>풍암동</t>
+  </si>
+  <si>
+    <t>각화동</t>
+  </si>
+  <si>
     <t>신가동</t>
   </si>
   <si>
-    <t>옥동</t>
+    <t>월곡동</t>
   </si>
   <si>
     <t>문흥동</t>
   </si>
   <si>
-    <t>중흥동</t>
-  </si>
-  <si>
-    <t>장덕동</t>
-  </si>
-  <si>
-    <t>운암동</t>
-  </si>
-  <si>
-    <t>동구_지산동</t>
-  </si>
-  <si>
-    <t>신용동</t>
-  </si>
-  <si>
-    <t>광천동</t>
+    <t>풍향동</t>
   </si>
   <si>
     <t>매곡동</t>
   </si>
   <si>
-    <t>서창동</t>
-  </si>
-  <si>
-    <t>용산동</t>
-  </si>
-  <si>
-    <t>수완동</t>
-  </si>
-  <si>
-    <t>계림동</t>
-  </si>
-  <si>
-    <t>두암동</t>
-  </si>
-  <si>
-    <t>동구_산수동</t>
-  </si>
-  <si>
-    <t>행암동</t>
-  </si>
-  <si>
-    <t>서동</t>
-  </si>
-  <si>
-    <t>임암동</t>
-  </si>
-  <si>
-    <t>신촌동</t>
+    <t>북구_우산동</t>
+  </si>
+  <si>
+    <t>임동</t>
+  </si>
+  <si>
+    <t>북구_동림동</t>
+  </si>
+  <si>
+    <t>서구_양동</t>
+  </si>
+  <si>
+    <t>방림동</t>
+  </si>
+  <si>
+    <t>삼도동</t>
+  </si>
+  <si>
+    <t>임곡동</t>
+  </si>
+  <si>
+    <t>도산동</t>
+  </si>
+  <si>
+    <t>동명동</t>
+  </si>
+  <si>
+    <t>대촌동</t>
+  </si>
+  <si>
+    <t>하산동</t>
+  </si>
+  <si>
+    <t>망월동</t>
   </si>
 </sst>
 </file>
@@ -461,7 +569,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -486,13 +594,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>1.688203813841962</v>
+        <v>446.7614268793607</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>1.688203813841962</v>
+        <v>445.7614268793607</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -500,13 +608,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>2.650267547675123</v>
+        <v>365.6701027461868</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>1.650267547675123</v>
+        <v>363.6701027461868</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -514,13 +622,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>1.522088568562173</v>
+        <v>284.3457061867324</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D4">
-        <v>1.522088568562173</v>
+        <v>280.3457061867324</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -528,13 +636,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>1.392477013460081</v>
+        <v>233.2767344523676</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>1.392477013460081</v>
+        <v>230.2767344523676</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -542,13 +650,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>1.272520924735143</v>
+        <v>206.8214827287596</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D6">
-        <v>1.272520924735143</v>
+        <v>201.8214827287596</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -556,13 +664,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>1.144275516170613</v>
+        <v>169.3576289066663</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>1.144275516170613</v>
+        <v>169.3576289066663</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -570,13 +678,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>1.138359576282134</v>
+        <v>171.499833800863</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D8">
-        <v>1.138359576282134</v>
+        <v>168.499833800863</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -584,13 +692,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>0.9873792386452247</v>
+        <v>161.5890163911761</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>0.9873792386452247</v>
+        <v>159.5890163911761</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -598,13 +706,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>0.9657116411810303</v>
+        <v>159.0372044288055</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.9657116411810303</v>
+        <v>159.0372044288055</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -612,13 +720,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>2.946003357462594</v>
+        <v>125.8672526497404</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11">
-        <v>0.9460033574625939</v>
+        <v>121.8672526497404</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -626,13 +734,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>0.9396553413735093</v>
+        <v>123.0847376226993</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D12">
-        <v>0.9396553413735093</v>
+        <v>121.0847376226993</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -640,13 +748,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>3.902780350068745</v>
+        <v>116.9567488869119</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>0.9027803500687446</v>
+        <v>116.9567488869119</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -654,13 +762,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>0.8296263265709373</v>
+        <v>117.4327446626545</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>0.8296263265709373</v>
+        <v>116.4327446626545</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -668,13 +776,13 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>0.8056607071277976</v>
+        <v>111.0351364432909</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D15">
-        <v>0.8056607071277976</v>
+        <v>106.0351364432909</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -682,13 +790,13 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>0.8008901518237046</v>
+        <v>106.9534909819321</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D16">
-        <v>0.8008901518237046</v>
+        <v>103.9534909819321</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -696,13 +804,13 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>0.7943257085046863</v>
+        <v>104.8325646337266</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D17">
-        <v>0.7943257085046863</v>
+        <v>102.8325646337266</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -710,13 +818,13 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>0.7482908822439902</v>
+        <v>95.6144930192465</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.7482908822439902</v>
+        <v>95.6144930192465</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -724,13 +832,13 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>0.74155608615226</v>
+        <v>96.45418183466508</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>0.74155608615226</v>
+        <v>95.45418183466508</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -738,13 +846,13 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>1.687928361777286</v>
+        <v>95.65165426395291</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D20">
-        <v>0.6879283617772858</v>
+        <v>92.65165426395291</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -752,13 +860,13 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>1.672266600049137</v>
+        <v>91.88701977827938</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D21">
-        <v>0.6722666000491373</v>
+        <v>88.88701977827938</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -766,13 +874,13 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>3.600103620771947</v>
+        <v>74.45475372138839</v>
       </c>
       <c r="C22">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>0.6001036207719475</v>
+        <v>74.45475372138839</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -780,13 +888,13 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>2.598232209192286</v>
+        <v>73.87743705576406</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D23">
-        <v>0.5982322091922865</v>
+        <v>72.87743705576406</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -794,13 +902,13 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>0.5910075739091545</v>
+        <v>70.38512807362147</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D24">
-        <v>0.5910075739091545</v>
+        <v>68.38512807362147</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -808,13 +916,13 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>0.5893321728082201</v>
+        <v>69.1509561172801</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D25">
-        <v>0.5893321728082201</v>
+        <v>66.1509561172801</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -822,13 +930,13 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>0.5821856634086739</v>
+        <v>65.22117000354498</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D26">
-        <v>0.5821856634086739</v>
+        <v>63.22117000354498</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -836,13 +944,517 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>0.5183922235964541</v>
+        <v>62.88403126567247</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27">
-        <v>0.5183922235964541</v>
+        <v>62.88403126567247</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28">
+        <v>60.25640139882713</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>60.25640139882713</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29">
+        <v>62.02486651305161</v>
+      </c>
+      <c r="C29">
+        <v>5</v>
+      </c>
+      <c r="D29">
+        <v>57.02486651305161</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30">
+        <v>58.88155169707157</v>
+      </c>
+      <c r="C30">
+        <v>4</v>
+      </c>
+      <c r="D30">
+        <v>54.88155169707157</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31">
+        <v>55.88109676580267</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>54.88109676580267</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32">
+        <v>53.56815339013958</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>52.56815339013958</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33">
+        <v>52.16543501183585</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>51.16543501183585</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34">
+        <v>44.07024716488393</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34">
+        <v>41.07024716488393</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35">
+        <v>40.33374732438038</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>40.33374732438038</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36">
+        <v>39.71906282826835</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>38.71906282826835</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37">
+        <v>35.20263027318052</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>35.20263027318052</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38">
+        <v>35.1145813607239</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <v>33.1145813607239</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39">
+        <v>35.02051414993348</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>33.02051414993348</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40">
+        <v>30.30704575340319</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>30.30704575340319</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41">
+        <v>30.41688795339357</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>29.41688795339357</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42">
+        <v>31.28719511792137</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42">
+        <v>29.28719511792137</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43">
+        <v>29.32252634390606</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>28.32252634390606</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44">
+        <v>26.49912999308544</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>25.49912999308544</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45">
+        <v>24.01935084707332</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>23.01935084707332</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46">
+        <v>25.32290483306656</v>
+      </c>
+      <c r="C46">
+        <v>3</v>
+      </c>
+      <c r="D46">
+        <v>22.32290483306656</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47">
+        <v>22.27009284100192</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>22.27009284100192</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48">
+        <v>24.44183250052221</v>
+      </c>
+      <c r="C48">
+        <v>3</v>
+      </c>
+      <c r="D48">
+        <v>21.44183250052221</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49">
+        <v>20.30957227389301</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>20.30957227389301</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50">
+        <v>20.98442036590254</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>19.98442036590254</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51">
+        <v>19.7529852487225</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>19.7529852487225</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52">
+        <v>19.8309555260889</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>18.8309555260889</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53">
+        <v>18.50829159075193</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>18.50829159075193</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54">
+        <v>21.09312239027748</v>
+      </c>
+      <c r="C54">
+        <v>3</v>
+      </c>
+      <c r="D54">
+        <v>18.09312239027748</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55">
+        <v>19.39263574801786</v>
+      </c>
+      <c r="C55">
+        <v>2</v>
+      </c>
+      <c r="D55">
+        <v>17.39263574801786</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B56">
+        <v>13.88365571029231</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>12.88365571029231</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57">
+        <v>10.59444435466949</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>10.59444435466949</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58">
+        <v>6.48334070176695</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>6.48334070176695</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59">
+        <v>4.260266909022951</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>3.260266909022951</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B60">
+        <v>2.870213427979832</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>1.870213427979832</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B61">
+        <v>1.766528275745916</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>1.766528275745916</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B62">
+        <v>1.62277141395906</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>1.62277141395906</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B63">
+        <v>1.597603478869176</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>1.597603478869176</v>
       </c>
     </row>
   </sheetData>
